--- a/excel/finished/烧结/烧结分厂主要工艺参数及实物质量情况-v1.xlsx
+++ b/excel/finished/烧结/烧结分厂主要工艺参数及实物质量情况-v1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="82">
   <si>
     <t>六号烧结机主要工艺参数及实物质量情况</t>
   </si>
@@ -217,19 +217,10 @@
     <t>ST5_L1R_SIN_BtpTeN_4h_avg</t>
   </si>
   <si>
-    <t>ST5_MESR_SIN_SinterR_1m_cur</t>
+    <t>Mg/Al</t>
   </si>
   <si>
-    <t>ST5_MESR_SIN_SinterTFe_1m_cur</t>
-  </si>
-  <si>
-    <t>ST5_MESR_SIN_SinterFeO_1m_cur</t>
-  </si>
-  <si>
-    <t>ST5_MESR_SIN_SinterMgAlRatio_1m_cur</t>
-  </si>
-  <si>
-    <t>ST5_MESR_SIN_SinterRDIH3p15_1m_cur</t>
+    <t>RDI+3.15</t>
   </si>
   <si>
     <t>ST6_L1R_SIN_DelAmtUse_4h_avg</t>
@@ -241,7 +232,7 @@
     <t>ST6_L1R_SIN_MI202_4h_avg</t>
   </si>
   <si>
-    <t>ST6_L1R_SIN_LI3031_4h_avg</t>
+    <t>ST6_L1R_SIN_LI3030_4h_avg</t>
   </si>
   <si>
     <t>ST6_L1R_SIN_PI367_4h_avg</t>
@@ -257,21 +248,6 @@
   </si>
   <si>
     <t>ST6_L1R_SIN_BtpTeN_4h_avg</t>
-  </si>
-  <si>
-    <t>ST6_MESR_SIN_SinterR_1m_cur</t>
-  </si>
-  <si>
-    <t>ST6_MESR_SIN_SinterTFe_1m_cur</t>
-  </si>
-  <si>
-    <t>ST6_MESR_SIN_SinterFeO_1m_cur</t>
-  </si>
-  <si>
-    <t>ST6_MESR_SIN_SinterMgAlRatio_1m_cur</t>
-  </si>
-  <si>
-    <t>ST6_MESR_SIN_SinterRDIH3p15_1m_cur</t>
   </si>
   <si>
     <t>5烧结</t>
@@ -304,11 +280,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="hh"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
-    <numFmt numFmtId="177" formatCode="hh"/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="31">
@@ -392,9 +368,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color indexed="2"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -403,6 +378,81 @@
       <u/>
       <sz val="11"/>
       <color indexed="20"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="65"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -424,8 +474,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -442,95 +507,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="2"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="65"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -587,14 +563,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="47"/>
+        <fgColor theme="8" tint="0.399945066682943"/>
+        <bgColor theme="8" tint="0.399945066682943"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor theme="5" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
     <fill>
@@ -605,8 +605,98 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor theme="9" tint="0.399945066682943"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor theme="9" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor theme="5" tint="0.799951170384838"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor theme="4" tint="0.799951170384838"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor theme="8" tint="0.799951170384838"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799951170384838"/>
         <bgColor theme="6" tint="0.799951170384838"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor theme="4" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399945066682943"/>
+        <bgColor theme="7" tint="0.399945066682943"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
+        <bgColor theme="6" tint="0.399945066682943"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor theme="7" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor theme="5" tint="0.399945066682943"/>
       </patternFill>
     </fill>
     <fill>
@@ -617,32 +707,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
-        <bgColor theme="6" tint="0.399945066682943"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor theme="5" tint="0.399945066682943"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor theme="9" tint="0.799951170384838"/>
       </patternFill>
     </fill>
     <fill>
@@ -653,26 +719,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor theme="7" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
-        <bgColor theme="7" tint="0.399945066682943"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor theme="9" tint="0.799951170384838"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor theme="8" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
@@ -683,80 +731,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor theme="8" tint="0.799951170384838"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor theme="5" tint="0.799951170384838"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor theme="4" tint="0.799951170384838"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor theme="4" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor theme="5" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
-        <bgColor theme="8" tint="0.399945066682943"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor theme="8" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor theme="9" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor theme="9" tint="0.399945066682943"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -918,47 +894,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,24 +910,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1007,11 +931,63 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1023,10 +999,10 @@
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="15">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="18">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0">
@@ -1035,19 +1011,19 @@
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0">
@@ -1056,112 +1032,112 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="19">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="21">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="18">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="16">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="16">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="15">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="20">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4644,7 +4620,7 @@
   <dimension ref="A1:Y69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N58" sqref="N58"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6350,34 +6326,34 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" ht="15.75" spans="2:8">
       <c r="B2" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8029,26 +8005,26 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="75" spans="1:5">
+    <row r="1" s="5" customFormat="1" spans="1:5">
       <c r="A1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -8064,38 +8040,38 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" s="5" customFormat="1" ht="60" spans="1:9">
       <c r="A1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -8111,26 +8087,26 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="75" spans="1:5">
+    <row r="1" s="5" customFormat="1" spans="1:5">
       <c r="A1" s="5" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
